--- a/Packages/cn.etetet.achievement/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.achievement/Luban/Config/Base/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.achievement/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4603A85-A9B5-FC46-9E56-6081165843E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB6D862-1248-1E42-95F7-54DA9D0BC35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -114,20 +114,6 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>Quest</t>
-  </si>
-  <si>
-    <t>QuestObjective</t>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.quest/Luban/Config/Datas/Quest.xlsx</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.quest/Luban/Config/Datas/QuestObjective.xlsx</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -584,50 +570,10 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="str">
-        <f>_xlfn.CONCAT("ET.",B4,"ConfigCategory")</f>
-        <v>ET.QuestConfigCategory</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D5" si="0">_xlfn.CONCAT(B4,"Config")</f>
-        <v>QuestConfig</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L5" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
-        <v>QuestConfigCategory</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
-        <v>ET.QuestObjectiveConfigCategory</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>QuestObjectiveConfig</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>QuestObjectiveConfigCategory</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="2"/>
@@ -664,21 +610,6 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
